--- a/Backend/Model Metrics/importances_rfc_vent.xlsx
+++ b/Backend/Model Metrics/importances_rfc_vent.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1689385060247453</v>
+        <v>0.1609525404196093</v>
       </c>
     </row>
     <row r="3">
@@ -462,37 +462,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07415048403658969</v>
+        <v>0.08342418131879123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ord_day0_gcs</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06179469341491817</v>
+        <v>0.05531493776990871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>demo_ethnicity___8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05871285401851267</v>
+        <v>0.05402338763611596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>demo_ethnicity___8</t>
+          <t>ord_day0_gcs</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05310704164741003</v>
+        <v>0.052952351962667</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04122799605465225</v>
+        <v>0.04232845218768505</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04096982895339985</v>
+        <v>0.04142244898512395</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04031895011403371</v>
+        <v>0.03875800848063816</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03182084386381789</v>
+        <v>0.03269581157771529</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03026168851043968</v>
+        <v>0.03093333135846039</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03020205092957735</v>
+        <v>0.03068561465677581</v>
       </c>
     </row>
     <row r="13">
@@ -562,17 +562,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02446114551435204</v>
+        <v>0.0258637597766083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>bl_lab_wbc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02346917248401421</v>
+        <v>0.02395425395618913</v>
       </c>
     </row>
     <row r="15">
@@ -582,27 +582,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02330729495514321</v>
+        <v>0.02379625561909436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02221153964375755</v>
+        <v>0.02372321490539694</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bl_lab_wbc</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02131788087651077</v>
+        <v>0.02286923726919101</v>
       </c>
     </row>
     <row r="18">
@@ -612,67 +612,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02114760001348583</v>
+        <v>0.02204655834624651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>org_day0_bilirubin</t>
+          <t>bl_kg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01905473270580949</v>
+        <v>0.02058704102466735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bl_kg</t>
+          <t>org_day0_bilirubin</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01883409079960521</v>
+        <v>0.01858959588703498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>demo_ethnicity___7</t>
+          <t>bl_lab_inr</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0187821744002866</v>
+        <v>0.01698046465775342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>demo_ethnicity___3</t>
+          <t>demo_ethnicity___7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01653458407889341</v>
+        <v>0.01602358306193647</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bl_lab_haemo</t>
+          <t>bl_temp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01561489336820387</v>
+        <v>0.01602075263325828</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>bl_lab_haemo</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01540171671792209</v>
+        <v>0.0157532379245426</v>
       </c>
     </row>
     <row r="25">
@@ -682,57 +682,57 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01502381968574173</v>
+        <v>0.01532189077858123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bl_lab_inr</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01420210715499238</v>
+        <v>0.01512677680456213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bl_lab_alt</t>
+          <t>bl_hr</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01405085468807259</v>
+        <v>0.01503121863517162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bl_temp</t>
+          <t>bl_lab_creatinine</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01401338602385829</v>
+        <v>0.0150150594657461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bl_lab_creatinine</t>
+          <t>bl_lab_alt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01391811041565475</v>
+        <v>0.01473121246954862</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bl_hr</t>
+          <t>demo_ethnicity___3</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01318404764314023</v>
+        <v>0.01377286872280545</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01298986163655332</v>
+        <v>0.01270276081363827</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01038545548924154</v>
+        <v>0.01206909111160555</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009320172328034932</v>
+        <v>0.008742246367801926</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007144709085486073</v>
+        <v>0.005234932388247297</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.004125712723143385</v>
+        <v>0.002552921026881584</v>
       </c>
     </row>
   </sheetData>
